--- a/remotecodes.xlsx
+++ b/remotecodes.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\Physics\Bridge-Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="4755" windowHeight="5955"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>Mute</t>
   </si>
@@ -235,13 +240,25 @@
   </si>
   <si>
     <t>C7</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>data 1</t>
+  </si>
+  <si>
+    <t>data 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +271,15 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,6 +316,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,6 +328,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -347,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,381 +623,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
     <col min="3" max="3" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C5" s="4">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>88</v>
-      </c>
-      <c r="C5" s="4">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>88</v>
+      </c>
+      <c r="C7" s="4">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>48</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3">
+        <v>90</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="3">
         <v>60</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="3">
+        <v>80</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="B25" s="3">
+        <v>40</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="4">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>78</v>
-      </c>
-      <c r="C28" s="4">
-        <v>87</v>
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="3">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="4">
-        <v>27</v>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33">
-        <v>38</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>72</v>
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B35" s="3">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
     </row>

--- a/remotecodes.xlsx
+++ b/remotecodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="80">
   <si>
     <t>Mute</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>data 2</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>5F</t>
   </si>
 </sst>
 </file>
@@ -623,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,119 +954,130 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>78</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C33" s="4">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C34" s="4">
         <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="3">
-        <v>38</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>19</v>
+      </c>
+      <c r="B36" s="3">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
     </row>
